--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Lrp5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H2">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.272507792271</v>
+        <v>17.82379233333333</v>
       </c>
       <c r="N2">
-        <v>17.272507792271</v>
+        <v>53.471377</v>
       </c>
       <c r="O2">
-        <v>0.4222808857170381</v>
+        <v>0.4233776263711466</v>
       </c>
       <c r="P2">
-        <v>0.4222808857170381</v>
+        <v>0.4233776263711467</v>
       </c>
       <c r="Q2">
-        <v>101.1132758118399</v>
+        <v>2.850030335364111</v>
       </c>
       <c r="R2">
-        <v>101.1132758118399</v>
+        <v>25.650273018277</v>
       </c>
       <c r="S2">
-        <v>0.4222808857170381</v>
+        <v>0.01121007400597485</v>
       </c>
       <c r="T2">
-        <v>0.4222808857170381</v>
+        <v>0.01121007400597486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H3">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.2989759117674</v>
+        <v>10.453073</v>
       </c>
       <c r="N3">
-        <v>10.2989759117674</v>
+        <v>31.359219</v>
       </c>
       <c r="O3">
-        <v>0.2517909224476176</v>
+        <v>0.2482971722436279</v>
       </c>
       <c r="P3">
-        <v>0.2517909224476176</v>
+        <v>0.2482971722436279</v>
       </c>
       <c r="Q3">
-        <v>60.29021404824699</v>
+        <v>1.671449857057667</v>
       </c>
       <c r="R3">
-        <v>60.29021404824699</v>
+        <v>15.043048713519</v>
       </c>
       <c r="S3">
-        <v>0.2517909224476176</v>
+        <v>0.006574342863090524</v>
       </c>
       <c r="T3">
-        <v>0.2517909224476176</v>
+        <v>0.006574342863090525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H4">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.1798745449214</v>
+        <v>4.27602</v>
       </c>
       <c r="N4">
-        <v>4.1798745449214</v>
+        <v>12.82806</v>
       </c>
       <c r="O4">
-        <v>0.1021902057444918</v>
+        <v>0.1015704830969034</v>
       </c>
       <c r="P4">
-        <v>0.1021902057444918</v>
+        <v>0.1015704830969034</v>
       </c>
       <c r="Q4">
-        <v>24.46898926331052</v>
+        <v>0.68373702334</v>
       </c>
       <c r="R4">
-        <v>24.46898926331052</v>
+        <v>6.15363321006</v>
       </c>
       <c r="S4">
-        <v>0.1021902057444918</v>
+        <v>0.002689354754284443</v>
       </c>
       <c r="T4">
-        <v>0.1021902057444918</v>
+        <v>0.002689354754284444</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H5">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.27069171093601</v>
+        <v>6.530620666666667</v>
       </c>
       <c r="N5">
-        <v>6.27069171093601</v>
+        <v>19.591862</v>
       </c>
       <c r="O5">
-        <v>0.1533068203875673</v>
+        <v>0.1551251621919343</v>
       </c>
       <c r="P5">
-        <v>0.1533068203875673</v>
+        <v>0.1551251621919343</v>
       </c>
       <c r="Q5">
-        <v>36.70863479260447</v>
+        <v>1.044248421473556</v>
       </c>
       <c r="R5">
-        <v>36.70863479260447</v>
+        <v>9.398235793262</v>
       </c>
       <c r="S5">
-        <v>0.1533068203875673</v>
+        <v>0.004107360521776848</v>
       </c>
       <c r="T5">
-        <v>0.1533068203875673</v>
+        <v>0.004107360521776848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +785,359 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H6">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.88083808568094</v>
+        <v>3.015535666666667</v>
       </c>
       <c r="N6">
-        <v>2.88083808568094</v>
+        <v>9.046607</v>
       </c>
       <c r="O6">
-        <v>0.07043116570328521</v>
+        <v>0.07162955609638778</v>
       </c>
       <c r="P6">
-        <v>0.07043116570328521</v>
+        <v>0.07162955609638778</v>
       </c>
       <c r="Q6">
-        <v>16.8644286880597</v>
+        <v>0.4821851582785556</v>
       </c>
       <c r="R6">
-        <v>16.8644286880597</v>
+        <v>4.339666424507</v>
       </c>
       <c r="S6">
-        <v>0.07043116570328521</v>
+        <v>0.001896587289550635</v>
       </c>
       <c r="T6">
-        <v>0.07043116570328521</v>
+        <v>0.001896587289550635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.879152</v>
+      </c>
+      <c r="H7">
+        <v>17.637456</v>
+      </c>
+      <c r="I7">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J7">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>17.82379233333333</v>
+      </c>
+      <c r="N7">
+        <v>53.471377</v>
+      </c>
+      <c r="O7">
+        <v>0.4233776263711466</v>
+      </c>
+      <c r="P7">
+        <v>0.4233776263711467</v>
+      </c>
+      <c r="Q7">
+        <v>104.7887843441013</v>
+      </c>
+      <c r="R7">
+        <v>943.0990590969121</v>
+      </c>
+      <c r="S7">
+        <v>0.4121675523651717</v>
+      </c>
+      <c r="T7">
+        <v>0.4121675523651718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.879152</v>
+      </c>
+      <c r="H8">
+        <v>17.637456</v>
+      </c>
+      <c r="I8">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J8">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.453073</v>
+      </c>
+      <c r="N8">
+        <v>31.359219</v>
+      </c>
+      <c r="O8">
+        <v>0.2482971722436279</v>
+      </c>
+      <c r="P8">
+        <v>0.2482971722436279</v>
+      </c>
+      <c r="Q8">
+        <v>61.455205034096</v>
+      </c>
+      <c r="R8">
+        <v>553.096845306864</v>
+      </c>
+      <c r="S8">
+        <v>0.2417228293805374</v>
+      </c>
+      <c r="T8">
+        <v>0.2417228293805374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.879152</v>
+      </c>
+      <c r="H9">
+        <v>17.637456</v>
+      </c>
+      <c r="I9">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J9">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.27602</v>
+      </c>
+      <c r="N9">
+        <v>12.82806</v>
+      </c>
+      <c r="O9">
+        <v>0.1015704830969034</v>
+      </c>
+      <c r="P9">
+        <v>0.1015704830969034</v>
+      </c>
+      <c r="Q9">
+        <v>25.13937153504</v>
+      </c>
+      <c r="R9">
+        <v>226.25434381536</v>
+      </c>
+      <c r="S9">
+        <v>0.09888112834261899</v>
+      </c>
+      <c r="T9">
+        <v>0.09888112834261902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.879152</v>
+      </c>
+      <c r="H10">
+        <v>17.637456</v>
+      </c>
+      <c r="I10">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J10">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.530620666666667</v>
+      </c>
+      <c r="N10">
+        <v>19.591862</v>
+      </c>
+      <c r="O10">
+        <v>0.1551251621919343</v>
+      </c>
+      <c r="P10">
+        <v>0.1551251621919343</v>
+      </c>
+      <c r="Q10">
+        <v>38.39451155367467</v>
+      </c>
+      <c r="R10">
+        <v>345.550603983072</v>
+      </c>
+      <c r="S10">
+        <v>0.1510178016701575</v>
+      </c>
+      <c r="T10">
+        <v>0.1510178016701574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.879152</v>
+      </c>
+      <c r="H11">
+        <v>17.637456</v>
+      </c>
+      <c r="I11">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J11">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.015535666666667</v>
+      </c>
+      <c r="N11">
+        <v>9.046607</v>
+      </c>
+      <c r="O11">
+        <v>0.07162955609638778</v>
+      </c>
+      <c r="P11">
+        <v>0.07162955609638778</v>
+      </c>
+      <c r="Q11">
+        <v>17.72879254575467</v>
+      </c>
+      <c r="R11">
+        <v>159.559132911792</v>
+      </c>
+      <c r="S11">
+        <v>0.06973296880683715</v>
+      </c>
+      <c r="T11">
+        <v>0.06973296880683716</v>
       </c>
     </row>
   </sheetData>
